--- a/Jogos_do_Dia/2022-12-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -704,7 +704,7 @@
         <v>4.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" t="n">
         <v>1.29</v>
@@ -722,328 +722,328 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australia A-League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44922.26041666666</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Newcastle Jets FC</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.62</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Z3" t="n">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44922.39583333334</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Guangzhou R&amp;F</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.55</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.24</v>
+        <v>1.98</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44922.45833333334</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Hebei CFFC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.74</v>
+        <v>0.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.13</v>
+        <v>1.77</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1052,87 +1052,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44922.45833333334</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Wuhan Zall</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1162,197 +1162,197 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44922.5</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.19</v>
+        <v>2.61</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44922.5</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Guangzhou Evergrande</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.4</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="X8" t="n">
         <v>1.15</v>
       </c>
-      <c r="T8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="Y8" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.08</v>
+        <v>2.46</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1382,770 +1382,1760 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Australia A-League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44922.58333333334</v>
+        <v>44922.26041666666</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>2.09</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="J9" t="n">
         <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH9" t="n">
         <v>2.15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44922.59375</v>
+        <v>44922.375</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Dalian Yifang</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44922.60416666666</v>
+        <v>44922.375</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
       <c r="W11" t="n">
-        <v>0.71</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.43</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0.97</v>
-      </c>
       <c r="Z11" t="n">
-        <v>2.4</v>
+        <v>3.47</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44922.66666666666</v>
+        <v>44922.375</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Hangzhou</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.75</v>
       </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.75</v>
-      </c>
       <c r="X12" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.98</v>
+        <v>3.94</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44922.66666666666</v>
+        <v>44922.39583333334</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.13</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.02</v>
       </c>
       <c r="H13" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
         <v>2.15</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.61</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="Y13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD13" t="n">
         <v>1.3</v>
       </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="AE13" t="n">
         <v>1.57</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="AF13" t="n">
         <v>2</v>
       </c>
-      <c r="W13" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AG13" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44922.70833333334</v>
+        <v>44922.45833333334</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.54</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>10.65</v>
       </c>
       <c r="K14" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.14</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.33</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>0.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.22</v>
+        <v>1.74</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.48</v>
+        <v>3.05</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44922.45833333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44922.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44922.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44922.58333333334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44922.59375</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>England Premier League</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B20" s="2" t="n">
+        <v>44922.60416666666</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44922.66666666666</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44922.66666666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>44922.70833333334</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C23" t="n">
+        <v>24</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44922.70833333334</v>
+      </c>
+      <c r="C24" t="n">
         <v>17</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Nottingham Forest</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="F24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.03</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J24" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K24" t="n">
         <v>1.2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>4.85</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1.6</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AG24" t="n">
         <v>2.03</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH24" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2022-12-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -635,10 +635,10 @@
         <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="V6" t="n">
         <v>1.87</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>1.01</v>
@@ -1423,10 +1423,10 @@
         <v>4.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N9" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V12" t="n">
         <v>2.07</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N13" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O13" t="n">
         <v>1.53</v>
@@ -1958,7 +1958,7 @@
         <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="N14" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>1.42</v>
@@ -2024,7 +2024,7 @@
         <v>3.05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE14" t="n">
         <v>1.59</v>
@@ -2036,7 +2036,7 @@
         <v>2.43</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2083,10 +2083,10 @@
         <v>3.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N15" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2125,28 +2125,28 @@
         <v>3.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2193,10 +2193,10 @@
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="N17" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
         <v>7.6</v>
@@ -2413,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="N18" t="n">
-        <v>2.13</v>
+        <v>2.74</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -2455,28 +2455,28 @@
         <v>3.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N19" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>4.55</v>
       </c>
       <c r="M20" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,10 +2743,10 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="G23" t="n">
         <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="N23" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -3014,7 +3014,7 @@
         <v>3.48</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE23" t="n">
         <v>1.33</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3073,10 +3073,10 @@
         <v>4.85</v>
       </c>
       <c r="M24" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="N24" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
